--- a/analysis/mails_01/P11_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,12 @@
     <t xml:space="preserve">water</t>
   </si>
   <si>
+    <t xml:space="preserve">56.9569</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.5661</t>
+  </si>
+  <si>
     <t xml:space="preserve">fjords</t>
   </si>
   <si>
@@ -93,18 +99,27 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4725</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2067</t>
+  </si>
+  <si>
     <t xml:space="preserve">randers fjord (ugelhuse)</t>
   </si>
   <si>
     <t xml:space="preserve">Sediment</t>
   </si>
   <si>
-    <t xml:space="preserve">Fjords?</t>
-  </si>
-  <si>
     <t xml:space="preserve">MFD03643</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2956</t>
+  </si>
+  <si>
     <t xml:space="preserve">randers fjord (udbyhøj)</t>
   </si>
   <si>
@@ -114,21 +129,42 @@
     <t xml:space="preserve">MFD03721</t>
   </si>
   <si>
+    <t xml:space="preserve">10.2066</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD03724</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4698</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.2438</t>
+  </si>
+  <si>
     <t xml:space="preserve">grund fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06863</t>
   </si>
   <si>
+    <t xml:space="preserve">55.9204</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.2914</t>
+  </si>
+  <si>
     <t xml:space="preserve">ringkøbing fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06866</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9759</t>
+  </si>
+  <si>
     <t xml:space="preserve">mariager fjord</t>
   </si>
   <si>
@@ -141,18 +177,36 @@
     <t xml:space="preserve">MFD06880</t>
   </si>
   <si>
+    <t xml:space="preserve">56.6502</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8987</t>
+  </si>
+  <si>
     <t xml:space="preserve">mariager fjord (indefjord)</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06881</t>
   </si>
   <si>
+    <t xml:space="preserve">55.8559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9193</t>
+  </si>
+  <si>
     <t xml:space="preserve">horsens fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD06885</t>
   </si>
   <si>
+    <t xml:space="preserve">55.5117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6265</t>
+  </si>
+  <si>
     <t xml:space="preserve">kolding fjord</t>
   </si>
   <si>
@@ -162,6 +216,12 @@
     <t xml:space="preserve">MFD06914</t>
   </si>
   <si>
+    <t xml:space="preserve">55.6941</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.6616</t>
+  </si>
+  <si>
     <t xml:space="preserve">vejle fjord</t>
   </si>
   <si>
@@ -183,22 +243,46 @@
     <t xml:space="preserve">MFD09779</t>
   </si>
   <si>
+    <t xml:space="preserve">56.3361</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8.1689</t>
+  </si>
+  <si>
     <t xml:space="preserve">nissum fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09799</t>
   </si>
   <si>
+    <t xml:space="preserve">56.5565</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9.0763</t>
+  </si>
+  <si>
     <t xml:space="preserve">skive fjord</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09835</t>
   </si>
   <si>
+    <t xml:space="preserve">56.4559</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.0345</t>
+  </si>
+  <si>
     <t xml:space="preserve">randers by</t>
   </si>
   <si>
     <t xml:space="preserve">MFD09852</t>
+  </si>
+  <si>
+    <t xml:space="preserve">56.6067</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.3006</t>
   </si>
   <si>
     <t xml:space="preserve">udbyhøj</t>
@@ -298,7 +382,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -308,6 +392,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFBCE0A8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE38140"/>
       </patternFill>
     </fill>
   </fills>
@@ -323,10 +412,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -672,1298 +762,1236 @@
         <v>15</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" t="n">
-        <v>56.9569</v>
-      </c>
-      <c r="E2" t="n">
-        <v>9.5661</v>
+      <c r="D2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" t="s">
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M2" s="3"/>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C3" s="2"/>
-      <c r="D3" t="n">
-        <v>56.4725</v>
-      </c>
-      <c r="E3" t="n">
-        <v>10.2067</v>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M3" s="3"/>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2"/>
-      <c r="D4" t="n">
-        <v>56.6024</v>
-      </c>
-      <c r="E4" t="n">
-        <v>10.2956</v>
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" t="s">
+        <v>34</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K4" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L4" t="s">
-        <v>22</v>
-      </c>
-      <c r="M4" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M4" s="3"/>
       <c r="N4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="2"/>
-      <c r="D5" t="n">
-        <v>56.6024</v>
-      </c>
-      <c r="E5" t="n">
-        <v>10.2956</v>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G5" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="I5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L5" t="s">
-        <v>22</v>
-      </c>
-      <c r="M5" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M5" s="3"/>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="2"/>
-      <c r="D6" t="n">
-        <v>56.4725</v>
-      </c>
-      <c r="E6" t="n">
-        <v>10.2066</v>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H6" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L6" t="s">
-        <v>22</v>
-      </c>
-      <c r="M6" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M6" s="3"/>
       <c r="N6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" t="n">
-        <v>56.4698</v>
-      </c>
-      <c r="E7" t="n">
-        <v>10.2438</v>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
       </c>
       <c r="F7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H7" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L7" t="s">
-        <v>22</v>
-      </c>
-      <c r="M7" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M7" s="3"/>
       <c r="N7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" t="n">
-        <v>55.9204</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.2914</v>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K8" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M8" s="3"/>
       <c r="N8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" t="n">
-        <v>56.6646</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.9759</v>
+      <c r="D9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J9" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L9" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M9" s="3"/>
       <c r="N9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="2"/>
-      <c r="D10" t="n">
-        <v>56.6646</v>
-      </c>
-      <c r="E10" t="n">
-        <v>9.9759</v>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M10" s="3"/>
       <c r="N10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="2"/>
-      <c r="D11" t="n">
-        <v>56.6646</v>
-      </c>
-      <c r="E11" t="n">
-        <v>9.9759</v>
+      <c r="D11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="I11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M11" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M11" s="3"/>
       <c r="N11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" t="n">
-        <v>56.6502</v>
-      </c>
-      <c r="E12" t="n">
-        <v>9.8987</v>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H12" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="I12" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J12" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L12" t="s">
-        <v>22</v>
-      </c>
-      <c r="M12" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M12" s="3"/>
       <c r="N12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" t="n">
-        <v>55.8559</v>
-      </c>
-      <c r="E13" t="n">
-        <v>9.9193</v>
+      <c r="D13" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" t="s">
+        <v>59</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H13" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I13" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L13" t="s">
-        <v>22</v>
-      </c>
-      <c r="M13" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M13" s="3"/>
       <c r="N13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
       <c r="C14" s="2"/>
-      <c r="D14" t="n">
-        <v>55.5117</v>
-      </c>
-      <c r="E14" t="n">
-        <v>9.6265</v>
+      <c r="D14" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" t="s">
+        <v>63</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>64</v>
       </c>
       <c r="I14" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J14" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L14" t="s">
-        <v>22</v>
-      </c>
-      <c r="M14" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M14" s="3"/>
       <c r="N14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C15" s="2"/>
-      <c r="D15" t="n">
-        <v>55.9204</v>
-      </c>
-      <c r="E15" t="n">
-        <v>8.2914</v>
+      <c r="D15" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" t="s">
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H15" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L15" t="s">
-        <v>22</v>
-      </c>
-      <c r="M15" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M15" s="3"/>
       <c r="N15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="2"/>
-      <c r="D16" t="n">
-        <v>55.6941</v>
-      </c>
-      <c r="E16" t="n">
-        <v>9.6616</v>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" t="s">
+        <v>68</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H16" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J16" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L16" t="s">
-        <v>22</v>
-      </c>
-      <c r="M16" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M16" s="3"/>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C17" s="2"/>
-      <c r="D17" t="n">
-        <v>55.8559</v>
-      </c>
-      <c r="E17" t="n">
-        <v>9.9193</v>
+      <c r="D17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" t="s">
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G17" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H17" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="I17" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K17" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M17" s="3"/>
       <c r="N17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C18" s="2"/>
-      <c r="D18" t="n">
-        <v>55.6941</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9.6616</v>
+      <c r="D18" t="s">
+        <v>67</v>
+      </c>
+      <c r="E18" t="s">
+        <v>68</v>
       </c>
       <c r="F18" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H18" t="s">
-        <v>49</v>
+        <v>69</v>
       </c>
       <c r="I18" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J18" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L18" t="s">
-        <v>22</v>
-      </c>
-      <c r="M18" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M18" s="3"/>
       <c r="N18" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" s="2"/>
-      <c r="D19" t="n">
-        <v>56.4698</v>
-      </c>
-      <c r="E19" t="n">
-        <v>10.2438</v>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H19" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="I19" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J19" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K19" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L19" t="s">
-        <v>22</v>
-      </c>
-      <c r="M19" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M19" s="3"/>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" t="n">
-        <v>56.9569</v>
-      </c>
-      <c r="E20" t="n">
-        <v>9.5661</v>
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s">
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G20" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I20" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J20" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K20" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L20" t="s">
-        <v>22</v>
-      </c>
-      <c r="M20" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M20" s="3"/>
       <c r="N20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" t="n">
-        <v>56.9569</v>
-      </c>
-      <c r="E21" t="n">
-        <v>9.5661</v>
+      <c r="D21" t="s">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s">
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H21" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J21" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K21" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L21" t="s">
-        <v>22</v>
-      </c>
-      <c r="M21" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M21" s="3"/>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C22" s="2"/>
-      <c r="D22" t="n">
-        <v>56.3361</v>
-      </c>
-      <c r="E22" t="n">
-        <v>8.1689</v>
+      <c r="D22" t="s">
+        <v>76</v>
+      </c>
+      <c r="E22" t="s">
+        <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H22" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I22" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K22" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L22" t="s">
-        <v>22</v>
-      </c>
-      <c r="M22" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M22" s="3"/>
       <c r="N22" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
       <c r="C23" s="2"/>
-      <c r="D23" t="n">
-        <v>56.5565</v>
-      </c>
-      <c r="E23" t="n">
-        <v>9.0763</v>
+      <c r="D23" t="s">
+        <v>80</v>
+      </c>
+      <c r="E23" t="s">
+        <v>81</v>
       </c>
       <c r="F23" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G23" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H23" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I23" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L23" t="s">
-        <v>22</v>
-      </c>
-      <c r="M23" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M23" s="3"/>
       <c r="N23" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" t="n">
-        <v>56.4559</v>
-      </c>
-      <c r="E24" t="n">
-        <v>10.0345</v>
+      <c r="D24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
       </c>
       <c r="F24" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H24" t="s">
-        <v>60</v>
+        <v>86</v>
       </c>
       <c r="I24" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J24" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K24" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L24" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M24" s="3"/>
       <c r="N24" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>87</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" t="n">
-        <v>56.6067</v>
-      </c>
-      <c r="E25" t="n">
-        <v>10.3006</v>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>89</v>
       </c>
       <c r="F25" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H25" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I25" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J25" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K25" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L25" t="s">
-        <v>22</v>
-      </c>
-      <c r="M25" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M25" s="3"/>
       <c r="N25" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>91</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="D26" t="n">
-        <v>56.5565</v>
-      </c>
-      <c r="E26" t="n">
-        <v>9.0763</v>
+      <c r="D26" t="s">
+        <v>80</v>
+      </c>
+      <c r="E26" t="s">
+        <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G26" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H26" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J26" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K26" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L26" t="s">
-        <v>22</v>
-      </c>
-      <c r="M26" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M26" s="3"/>
       <c r="N26" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>64</v>
+        <v>92</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" t="n">
-        <v>56.5565</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9.0763</v>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>81</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H27" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I27" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K27" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L27" t="s">
-        <v>22</v>
-      </c>
-      <c r="M27" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M27" s="3"/>
       <c r="N27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>93</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" t="n">
-        <v>56.5565</v>
-      </c>
-      <c r="E28" t="n">
-        <v>9.0763</v>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
       </c>
       <c r="F28" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G28" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H28" t="s">
-        <v>58</v>
+        <v>82</v>
       </c>
       <c r="I28" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J28" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L28" t="s">
-        <v>22</v>
-      </c>
-      <c r="M28" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M28" s="3"/>
       <c r="N28" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>94</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" t="n">
-        <v>56.6067</v>
-      </c>
-      <c r="E29" t="n">
-        <v>10.3006</v>
+      <c r="D29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" t="s">
+        <v>89</v>
       </c>
       <c r="F29" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G29" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H29" t="s">
-        <v>62</v>
+        <v>90</v>
       </c>
       <c r="I29" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J29" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L29" t="s">
-        <v>22</v>
-      </c>
-      <c r="M29" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M29" s="3"/>
       <c r="N29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="D30" t="n">
-        <v>56.3361</v>
-      </c>
-      <c r="E30" t="n">
-        <v>8.1689</v>
+      <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
+        <v>77</v>
       </c>
       <c r="F30" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G30" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H30" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I30" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J30" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L30" t="s">
-        <v>22</v>
-      </c>
-      <c r="M30" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M30" s="3"/>
       <c r="N30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" t="n">
-        <v>56.3361</v>
-      </c>
-      <c r="E31" t="n">
-        <v>8.1689</v>
+      <c r="D31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E31" t="s">
+        <v>77</v>
       </c>
       <c r="F31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G31" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H31" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="I31" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="J31" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L31" t="s">
-        <v>22</v>
-      </c>
-      <c r="M31" t="s">
-        <v>22</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M31" s="3"/>
       <c r="N31" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" t="n">
-        <v>56.9569</v>
-      </c>
-      <c r="E32" t="n">
-        <v>9.5661</v>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s">
+        <v>17</v>
       </c>
       <c r="F32" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G32" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I32" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J32" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="L32" t="s">
-        <v>22</v>
-      </c>
-      <c r="M32" t="s">
-        <v>28</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="M32" s="3"/>
       <c r="N32" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1982,10 +2010,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
@@ -1993,7 +2021,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -2001,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>73</v>
+        <v>101</v>
       </c>
     </row>
     <row r="4">
@@ -2009,7 +2037,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5">
@@ -2017,7 +2045,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>75</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6">
@@ -2025,7 +2053,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7">
@@ -2033,7 +2061,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
@@ -2041,7 +2069,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>78</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9">
@@ -2049,7 +2077,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
     </row>
     <row r="10">
@@ -2057,7 +2085,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
@@ -2065,7 +2093,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
@@ -2073,7 +2101,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
@@ -2081,7 +2109,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14">
@@ -2089,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
@@ -2097,7 +2125,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/mails_01/P11_3/table_to_fill.xlsx
+++ b/analysis/mails_01/P11_3/table_to_fill.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="121">
   <si>
     <t xml:space="preserve">fieldsample_barcode</t>
   </si>
@@ -63,6 +63,9 @@
     <t xml:space="preserve">water</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-04-06</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.9569</t>
   </si>
   <si>
@@ -99,6 +102,9 @@
     <t xml:space="preserve">sediment</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-07-04</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.4725</t>
   </si>
   <si>
@@ -135,6 +141,9 @@
     <t xml:space="preserve">MFD03724</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-02-26</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.4698</t>
   </si>
   <si>
@@ -147,6 +156,9 @@
     <t xml:space="preserve">MFD06863</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-07-03</t>
+  </si>
+  <si>
     <t xml:space="preserve">55.9204</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve">MFD09779</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-02-24</t>
+  </si>
+  <si>
     <t xml:space="preserve">56.3361</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t xml:space="preserve">MFD09964</t>
   </si>
   <si>
+    <t xml:space="preserve">2022-02-22</t>
+  </si>
+  <si>
     <t xml:space="preserve">MFD09979</t>
   </si>
   <si>
@@ -307,6 +325,9 @@
   </si>
   <si>
     <t xml:space="preserve">MFD10039</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022-02-18</t>
   </si>
   <si>
     <t xml:space="preserve">Variable</t>
@@ -382,17 +403,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFBCE0A8"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -412,11 +428,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -761,1237 +776,1299 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M2" s="2"/>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C3" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I3" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M3" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M3" s="2"/>
       <c r="N3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
       <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>31</v>
-      </c>
       <c r="J4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M4" s="2"/>
       <c r="N4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B5" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="2"/>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" t="s">
-        <v>24</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M5" s="2"/>
       <c r="N5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="2"/>
+      <c r="C6" t="s">
+        <v>29</v>
+      </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L6" t="s">
-        <v>24</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M6" s="2"/>
       <c r="N6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L7" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M7" s="2"/>
       <c r="N7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="2"/>
+      <c r="C8" t="s">
+        <v>47</v>
+      </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L8" t="s">
-        <v>24</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M8" s="2"/>
       <c r="N8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2"/>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H9" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L9" t="s">
-        <v>24</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M9" s="2"/>
       <c r="N9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B10" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="2"/>
+      <c r="C10" t="s">
+        <v>29</v>
+      </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G10" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M10" s="2"/>
       <c r="N10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B11" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="2"/>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="I11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L11" t="s">
-        <v>24</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M11" s="2"/>
       <c r="N11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2"/>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H12" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M12" s="2"/>
       <c r="N12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2"/>
+      <c r="C13" t="s">
+        <v>47</v>
+      </c>
       <c r="D13" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H13" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J13" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M13" s="2"/>
       <c r="N13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="2"/>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
       <c r="D14" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E14" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H14" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K14" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L14" t="s">
-        <v>24</v>
-      </c>
-      <c r="M14" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M14" s="2"/>
       <c r="N14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
-      </c>
-      <c r="C15" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="F15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L15" t="s">
-        <v>24</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M15" s="2"/>
       <c r="N15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="2"/>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
       <c r="D16" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E16" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H16" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L16" t="s">
-        <v>24</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M16" s="2"/>
       <c r="N16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C17" t="s">
+        <v>47</v>
+      </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G17" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H17" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="I17" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L17" t="s">
-        <v>24</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C18" t="s">
+        <v>47</v>
+      </c>
+      <c r="D18" t="s">
         <v>71</v>
       </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" t="s">
-        <v>67</v>
-      </c>
       <c r="E18" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G18" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H18" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="I18" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L18" t="s">
-        <v>24</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="2"/>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G19" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="I19" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K19" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L19" t="s">
-        <v>24</v>
-      </c>
-      <c r="M19" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="2"/>
+      <c r="C20" t="s">
+        <v>16</v>
+      </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H20" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J20" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L20" t="s">
-        <v>24</v>
-      </c>
-      <c r="M20" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M20" s="2"/>
       <c r="N20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B21" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="2"/>
+      <c r="C21" t="s">
+        <v>16</v>
+      </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K21" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L21" t="s">
-        <v>24</v>
-      </c>
-      <c r="M21" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M21" s="2"/>
       <c r="N21" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C22" t="s">
+        <v>80</v>
+      </c>
       <c r="D22" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H22" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B23" t="s">
         <v>15</v>
       </c>
-      <c r="C23" s="2"/>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
       <c r="D23" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E23" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F23" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H23" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K23" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L23" t="s">
-        <v>24</v>
-      </c>
-      <c r="M23" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B24" t="s">
         <v>15</v>
       </c>
-      <c r="C24" s="2"/>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
       <c r="D24" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E24" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="F24" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H24" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="I24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L24" t="s">
-        <v>24</v>
-      </c>
-      <c r="M24" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M24" s="2"/>
       <c r="N24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B25" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="2"/>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G25" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H25" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I25" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L25" t="s">
-        <v>24</v>
-      </c>
-      <c r="M25" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M25" s="2"/>
       <c r="N25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>15</v>
       </c>
-      <c r="C26" s="2"/>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
       <c r="D26" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G26" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H26" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K26" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L26" t="s">
-        <v>24</v>
-      </c>
-      <c r="M26" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M26" s="2"/>
       <c r="N26" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B27" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="2"/>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
       <c r="D27" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E27" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I27" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K27" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L27" t="s">
-        <v>24</v>
-      </c>
-      <c r="M27" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>99</v>
+      </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="F28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G28" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="I28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L28" t="s">
-        <v>24</v>
-      </c>
-      <c r="M28" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M28" s="2"/>
       <c r="N28" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="B29" t="s">
         <v>15</v>
       </c>
-      <c r="C29" s="2"/>
+      <c r="C29" t="s">
+        <v>42</v>
+      </c>
       <c r="D29" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="F29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G29" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H29" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="I29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J29" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K29" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L29" t="s">
-        <v>24</v>
-      </c>
-      <c r="M29" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M29" s="2"/>
       <c r="N29" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B30" t="s">
         <v>15</v>
       </c>
-      <c r="C30" s="2"/>
+      <c r="C30" t="s">
+        <v>42</v>
+      </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F30" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G30" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H30" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I30" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L30" t="s">
-        <v>24</v>
-      </c>
-      <c r="M30" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
         <v>15</v>
       </c>
-      <c r="C31" s="2"/>
+      <c r="C31" t="s">
+        <v>42</v>
+      </c>
       <c r="D31" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="E31" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G31" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H31" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="I31" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J31" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L31" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M31" s="2"/>
       <c r="N31" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>104</v>
+      </c>
       <c r="D32" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E32" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F32" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G32" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H32" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I32" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J32" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K32" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L32" t="s">
-        <v>24</v>
-      </c>
-      <c r="M32" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2010,10 +2087,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
@@ -2021,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3">
@@ -2029,7 +2106,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4">
@@ -2037,7 +2114,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5">
@@ -2045,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
@@ -2053,7 +2130,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7">
@@ -2061,7 +2138,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8">
@@ -2069,7 +2146,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9">
@@ -2077,7 +2154,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10">
@@ -2085,7 +2162,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="11">
@@ -2093,7 +2170,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="12">
@@ -2101,7 +2178,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
@@ -2109,7 +2186,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="14">
@@ -2117,7 +2194,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15">
@@ -2125,7 +2202,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
